--- a/statistics/R/roiHumanBody_Within-PLI_delta/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_delta/output.xlsx
@@ -318,22 +318,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04194819819819817</v>
+        <v>-0.020974099099099086</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.10084976751643421</v>
+        <v>-0.050424883758217104</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.015137596257140895</v>
+        <v>-0.0075687981285704475</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08087679516250951</v>
+        <v>0.040438397581254754</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04775368480725628</v>
+        <v>-0.02387684240362814</v>
       </c>
       <c r="H2" t="n">
-        <v>0.057476206857011825</v>
+        <v>0.028738103428505912</v>
       </c>
     </row>
     <row r="3">
@@ -344,22 +344,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03180654978040609</v>
+        <v>0.015903274890203045</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.048328220176959646</v>
+        <v>-0.024164110088479823</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09447334489351294</v>
+        <v>0.04723667244675647</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07928727046374112</v>
+        <v>-0.03964363523187056</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03695922813569874</v>
+        <v>0.01847961406784937</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08506385010144407</v>
+        <v>0.042531925050722036</v>
       </c>
     </row>
     <row r="4">
@@ -370,22 +370,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.050521109344638715</v>
+        <v>-0.025260554672319357</v>
       </c>
       <c r="D4" t="n">
-        <v>0.021971595655806142</v>
+        <v>0.010985797827903071</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04074466793765047</v>
+        <v>-0.020372333968825235</v>
       </c>
       <c r="F4" t="n">
-        <v>0.025799303577081267</v>
+        <v>0.012899651788540634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09716807450725595</v>
+        <v>0.048584037253627976</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0737587404254072</v>
+        <v>0.0368793702127036</v>
       </c>
     </row>
     <row r="5">
@@ -396,22 +396,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.016708545279973785</v>
+        <v>-0.008354272639986893</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.024243760354871413</v>
+        <v>-0.012121880177435707</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02780644421511297</v>
+        <v>0.013903222107556484</v>
       </c>
       <c r="F5" t="n">
-        <v>0.013053818609374213</v>
+        <v>0.006526909304687106</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1351394724556489</v>
+        <v>-0.06756973622782445</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04355647983098976</v>
+        <v>0.02177823991549488</v>
       </c>
     </row>
     <row r="6">
@@ -422,22 +422,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.013674847008180446</v>
+        <v>-0.006837423504090223</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01855407634977535</v>
+        <v>-0.009277038174887675</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05334295334295336</v>
+        <v>-0.02667147667147668</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01899055918663728</v>
+        <v>0.00949527959331864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09560989560989563</v>
+        <v>0.04780494780494782</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.04219894497672261</v>
+        <v>-0.021099472488361304</v>
       </c>
     </row>
     <row r="7">
@@ -448,22 +448,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04723316227075619</v>
+        <v>0.023616581135378095</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.1498080713769925E-4</v>
+        <v>-2.0749040356884962E-4</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.027733361066694384</v>
+        <v>-0.013866680533347192</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07248677248677249</v>
+        <v>0.036243386243386244</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08947704081632651</v>
+        <v>0.04473852040816326</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05684891240446799</v>
+        <v>0.028424456202233994</v>
       </c>
     </row>
     <row r="8">
@@ -474,22 +474,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11108377284847881</v>
+        <v>0.055541886424239406</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.004556143445032523</v>
+        <v>-0.0022780717225162617</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04903418157386419</v>
+        <v>0.024517090786932094</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05971035137701797</v>
+        <v>-0.029855175688508984</v>
       </c>
       <c r="G8" t="n">
-        <v>0.030595902024473376</v>
+        <v>0.015297951012236688</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0664406966490299</v>
+        <v>0.03322034832451495</v>
       </c>
     </row>
     <row r="9">
@@ -500,22 +500,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.030370670995670868</v>
+        <v>-0.015185335497835434</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08135956891717261</v>
+        <v>0.040679784458586304</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.050446104367672884</v>
+        <v>-0.025223052183836442</v>
       </c>
       <c r="F9" t="n">
-        <v>0.013922482573276329</v>
+        <v>0.0069612412866381645</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0743169321600694</v>
+        <v>0.0371584660800347</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.004807543550233606</v>
+        <v>-0.002403771775116803</v>
       </c>
     </row>
     <row r="10">
@@ -526,22 +526,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.04030723400471298</v>
+        <v>-0.02015361700235649</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.14090782511835143</v>
+        <v>-0.07045391255917571</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04770689056403343</v>
+        <v>-0.023853445282016716</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0583099906629318</v>
+        <v>0.0291549953314659</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.034073756295978586</v>
+        <v>-0.017036878147989293</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.005744520030234346</v>
+        <v>-0.002872260015117173</v>
       </c>
     </row>
     <row r="11">
@@ -552,22 +552,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06966151132817816</v>
+        <v>0.03483075566408908</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08952937900306329</v>
+        <v>0.044764689501531646</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0043615043615043425</v>
+        <v>-0.0021807521807521713</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04113756613756603</v>
+        <v>0.020568783068783014</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01501322751322759</v>
+        <v>0.007506613756613795</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06214670103559</v>
+        <v>0.031073350517795</v>
       </c>
     </row>
     <row r="12">
@@ -578,22 +578,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03240115959414208</v>
+        <v>-0.01620057979707104</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003571639536551874</v>
+        <v>-0.001785819768275937</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.06250944822373389</v>
+        <v>-0.031254724111866944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1698551935394041</v>
+        <v>0.08492759676970205</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02691282077246987</v>
+        <v>0.013456410386234935</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05128205128205121</v>
+        <v>0.025641025641025605</v>
       </c>
     </row>
     <row r="13">
@@ -604,22 +604,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.07953466286799638</v>
+        <v>-0.03976733143399819</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0298709423709424</v>
+        <v>-0.0149354711854712</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06257658033973823</v>
+        <v>-0.031288290169869115</v>
       </c>
       <c r="F13" t="n">
-        <v>0.027447089947089998</v>
+        <v>0.013723544973544999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03708791208791201</v>
+        <v>0.018543956043956006</v>
       </c>
       <c r="H13" t="n">
-        <v>0.021692407657319945</v>
+        <v>0.010846203828659973</v>
       </c>
     </row>
     <row r="14">
@@ -630,22 +630,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007653061224489777</v>
+        <v>0.0038265306122448883</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03902116402116396</v>
+        <v>-0.01951058201058198</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.049324835039120773</v>
+        <v>-0.024662417519560387</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09423919718037377</v>
+        <v>0.047119598590186884</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0035035035035034245</v>
+        <v>-0.0017517517517517123</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.027951472395916832</v>
+        <v>-0.013975736197958416</v>
       </c>
     </row>
     <row r="15">
@@ -656,22 +656,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005072171738838338</v>
+        <v>0.002536085869419169</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.042270445048222804</v>
+        <v>-0.021135222524111402</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03026216334487014</v>
+        <v>0.01513108167243507</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.05054678738889262</v>
+        <v>-0.02527339369444631</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04923417178319145</v>
+        <v>-0.024617085891595725</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04365563889373414</v>
+        <v>0.02182781944686707</v>
       </c>
     </row>
     <row r="16">
@@ -682,22 +682,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.037922843478399026</v>
+        <v>-0.018961421739199513</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.06319270398217763</v>
+        <v>-0.03159635199108882</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05758505758505761</v>
+        <v>0.028792528792528804</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.05555555555555569</v>
+        <v>-0.027777777777777846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.024455191121857844</v>
+        <v>0.012227595560928922</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.08977850399419035</v>
+        <v>-0.044889251997095175</v>
       </c>
     </row>
     <row r="17">
@@ -708,22 +708,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.19495884773662542</v>
+        <v>0.09747942386831271</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.025925925925925908</v>
+        <v>-0.012962962962962954</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.09116259116259112</v>
+        <v>-0.04558129558129556</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04061937395270737</v>
+        <v>-0.020309686976353686</v>
       </c>
       <c r="G17" t="n">
-        <v>0.014943514943515035</v>
+        <v>0.0074717574717575175</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02084624306846522</v>
+        <v>0.01042312153423261</v>
       </c>
     </row>
     <row r="18">
@@ -734,22 +734,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.14479485751415583</v>
+        <v>-0.07239742875707791</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0046584715757647666</v>
+        <v>-0.0023292357878823833</v>
       </c>
       <c r="E18" t="n">
-        <v>0.016996922225680444</v>
+        <v>0.008498461112840222</v>
       </c>
       <c r="F18" t="n">
-        <v>0.15911079146373258</v>
+        <v>0.07955539573186629</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04924834131183342</v>
+        <v>0.02462417065591671</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.015862517846644775</v>
+        <v>-0.007931258923322387</v>
       </c>
     </row>
     <row r="19">
@@ -760,22 +760,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07857142857142874</v>
+        <v>0.03928571428571437</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.008833812927380336</v>
+        <v>-0.004416906463690168</v>
       </c>
       <c r="E19" t="n">
-        <v>0.029605001827224142</v>
+        <v>0.014802500913612071</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02422723475355054</v>
+        <v>-0.01211361737677527</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03658810325476991</v>
+        <v>0.018294051627384955</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08311998634579265</v>
+        <v>0.041559993172896326</v>
       </c>
     </row>
     <row r="20">
@@ -786,22 +786,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.016074577979340032</v>
+        <v>0.008037288989670016</v>
       </c>
       <c r="D20" t="n">
-        <v>0.023256339045812646</v>
+        <v>0.011628169522906323</v>
       </c>
       <c r="E20" t="n">
-        <v>0.026878985212318518</v>
+        <v>0.013439492606159259</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.015880996273153092</v>
+        <v>-0.007940498136576546</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.036833536833536795</v>
+        <v>-0.018416768416768398</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.006680449957760959</v>
+        <v>-0.0033402249788804794</v>
       </c>
     </row>
     <row r="21">
@@ -812,22 +812,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.062942062942063</v>
+        <v>0.0314710314710315</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04385250876478941</v>
+        <v>-0.021926254382394705</v>
       </c>
       <c r="E21" t="n">
-        <v>0.22242572242572245</v>
+        <v>0.11121286121286122</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12970817356782266</v>
+        <v>0.06485408678391133</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04314257866889454</v>
+        <v>0.02157128933444727</v>
       </c>
       <c r="H21" t="n">
-        <v>0.015596182262848812</v>
+        <v>0.007798091131424406</v>
       </c>
     </row>
     <row r="22">
@@ -838,22 +838,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.14551526316232188</v>
+        <v>0.07275763158116094</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.08897339800117576</v>
+        <v>-0.04448669900058788</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.007658429533429545</v>
+        <v>-0.0038292147667147725</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.013669795403541574</v>
+        <v>-0.006834897701770787</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001511715797430091</v>
+        <v>-7.558578987150455E-4</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.015380459824904436</v>
+        <v>-0.007690229912452218</v>
       </c>
     </row>
     <row r="23">
@@ -864,22 +864,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.005388324832769187</v>
+        <v>-0.0026941624163845934</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.05740842883700037</v>
+        <v>-0.028704214418500185</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00836738994633729</v>
+        <v>0.004183694973168645</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00403150403150393</v>
+        <v>0.002015752015751965</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05476341002656787</v>
+        <v>0.027381705013283936</v>
       </c>
       <c r="H23" t="n">
-        <v>0.13159430438842212</v>
+        <v>0.06579715219421106</v>
       </c>
     </row>
     <row r="24">
@@ -890,22 +890,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02316602316602312</v>
+        <v>0.01158301158301156</v>
       </c>
       <c r="D24" t="n">
-        <v>0.053907917943005645</v>
+        <v>0.026953958971502823</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04158187491520837</v>
+        <v>0.020790937457604186</v>
       </c>
       <c r="F24" t="n">
-        <v>0.027499303815093357</v>
+        <v>0.013749651907546678</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05380616784125564</v>
+        <v>0.02690308392062782</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06586266235389032</v>
+        <v>0.03293133117694516</v>
       </c>
     </row>
     <row r="25">
@@ -916,22 +916,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.07736554288278419</v>
+        <v>-0.038682771441392094</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.10374660374660383</v>
+        <v>-0.051873301873301914</v>
       </c>
       <c r="E25" t="n">
-        <v>0.017606350939684323</v>
+        <v>0.008803175469842162</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0467610467610467</v>
+        <v>0.02338052338052335</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05004924528734034</v>
+        <v>0.02502462264367017</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.046837015587015474</v>
+        <v>-0.023418507793507737</v>
       </c>
     </row>
     <row r="26">
@@ -942,22 +942,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.055052755345153026</v>
+        <v>0.027526377672576513</v>
       </c>
       <c r="D26" t="n">
-        <v>0.044105329819615624</v>
+        <v>0.022052664909807812</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0024097180959926634</v>
+        <v>0.0012048590479963317</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09633172713529858</v>
+        <v>0.04816586356764929</v>
       </c>
       <c r="G26" t="n">
-        <v>0.026805499027721225</v>
+        <v>0.013402749513860612</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.440847944115258E-4</v>
+        <v>-3.220423972057629E-4</v>
       </c>
     </row>
     <row r="27">
@@ -968,22 +968,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02240465836957073</v>
+        <v>0.011202329184785365</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.03518054395247372</v>
+        <v>-0.01759027197623686</v>
       </c>
       <c r="E27" t="n">
-        <v>0.011417539988968495</v>
+        <v>0.005708769994484247</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04890604890604883</v>
+        <v>0.024453024453024413</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001085334418667705</v>
+        <v>5.426672093338525E-4</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09752609752609764</v>
+        <v>0.04876304876304882</v>
       </c>
     </row>
     <row r="28">
@@ -994,22 +994,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07538632737045436</v>
+        <v>0.03769316368522718</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.041285525156492975</v>
+        <v>-0.020642762578246487</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07346235124012901</v>
+        <v>0.036731175620064505</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08317271352985639</v>
+        <v>0.041586356764928195</v>
       </c>
       <c r="G28" t="n">
-        <v>0.010901421500499886</v>
+        <v>0.005450710750249943</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.02536570183629</v>
+        <v>-0.012682850918145</v>
       </c>
     </row>
     <row r="29">
@@ -1020,22 +1020,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06203007518796999</v>
+        <v>0.031015037593984995</v>
       </c>
       <c r="D29" t="n">
-        <v>0.015594348927682078</v>
+        <v>0.007797174463841039</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03909465020576125</v>
+        <v>-0.019547325102880625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0215530656707128</v>
+        <v>0.0107765328353564</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08980204694490401</v>
+        <v>0.044901023472452006</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03453453453453453</v>
+        <v>0.017267267267267267</v>
       </c>
     </row>
     <row r="30">
@@ -1046,22 +1046,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0215644215644214</v>
+        <v>0.0107822107822107</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.06111289861289859</v>
+        <v>-0.030556449306449296</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.040224748558081946</v>
+        <v>-0.020112374279040973</v>
       </c>
       <c r="F30" t="n">
-        <v>0.015687115687115616</v>
+        <v>0.007843557843557808</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07903439153439162</v>
+        <v>0.03951719576719581</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02857933121091022</v>
+        <v>0.01428966560545511</v>
       </c>
     </row>
   </sheetData>
@@ -1115,10 +1115,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.071</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="3">
@@ -1138,10 +1138,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.023</v>
+        <v>-0.011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.053</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="4">
@@ -1161,10 +1161,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.062</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="5">
@@ -1184,10 +1184,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.031</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.063</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.051</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="7">
@@ -1230,10 +1230,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.026</v>
+        <v>0.013</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>8.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08135956891717261</v>
+        <v>0.040679784458586304</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1307,7 +1307,7 @@
         <v>9.0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.14090782511835143</v>
+        <v>-0.07045391255917571</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1330,7 +1330,7 @@
         <v>10.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08952937900306329</v>
+        <v>0.044764689501531646</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1353,7 +1353,7 @@
         <v>20.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.22242572242572245</v>
+        <v>0.11121286121286122</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1376,7 +1376,7 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1351394724556489</v>
+        <v>-0.06756973622782445</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>

--- a/statistics/R/roiHumanBody_Within-PLI_delta/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_delta/output.xlsx
@@ -318,22 +318,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.020974099099099086</v>
+        <v>-0.04194819819819817</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.050424883758217104</v>
+        <v>-0.10084976751643421</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0075687981285704475</v>
+        <v>-0.015137596257140895</v>
       </c>
       <c r="F2" t="n">
-        <v>0.040438397581254754</v>
+        <v>0.08087679516250951</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02387684240362814</v>
+        <v>-0.04775368480725628</v>
       </c>
       <c r="H2" t="n">
-        <v>0.028738103428505912</v>
+        <v>0.057476206857011825</v>
       </c>
     </row>
     <row r="3">
@@ -344,22 +344,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.015903274890203045</v>
+        <v>0.03180654978040609</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.024164110088479823</v>
+        <v>-0.048328220176959646</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04723667244675647</v>
+        <v>0.09447334489351294</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03964363523187056</v>
+        <v>-0.07928727046374112</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01847961406784937</v>
+        <v>0.03695922813569874</v>
       </c>
       <c r="H3" t="n">
-        <v>0.042531925050722036</v>
+        <v>0.08506385010144407</v>
       </c>
     </row>
     <row r="4">
@@ -370,22 +370,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.025260554672319357</v>
+        <v>-0.050521109344638715</v>
       </c>
       <c r="D4" t="n">
-        <v>0.010985797827903071</v>
+        <v>0.021971595655806142</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.020372333968825235</v>
+        <v>-0.04074466793765047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.012899651788540634</v>
+        <v>0.025799303577081267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.048584037253627976</v>
+        <v>0.09716807450725595</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0368793702127036</v>
+        <v>0.0737587404254072</v>
       </c>
     </row>
     <row r="5">
@@ -396,22 +396,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.008354272639986893</v>
+        <v>-0.016708545279973785</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.012121880177435707</v>
+        <v>-0.024243760354871413</v>
       </c>
       <c r="E5" t="n">
-        <v>0.013903222107556484</v>
+        <v>0.02780644421511297</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006526909304687106</v>
+        <v>0.013053818609374213</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06756973622782445</v>
+        <v>-0.1351394724556489</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02177823991549488</v>
+        <v>0.04355647983098976</v>
       </c>
     </row>
     <row r="6">
@@ -422,22 +422,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.006837423504090223</v>
+        <v>-0.013674847008180446</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.009277038174887675</v>
+        <v>-0.01855407634977535</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02667147667147668</v>
+        <v>-0.05334295334295336</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00949527959331864</v>
+        <v>0.01899055918663728</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04780494780494782</v>
+        <v>0.09560989560989563</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.021099472488361304</v>
+        <v>-0.04219894497672261</v>
       </c>
     </row>
     <row r="7">
@@ -448,22 +448,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.023616581135378095</v>
+        <v>0.04723316227075619</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.0749040356884962E-4</v>
+        <v>-4.1498080713769925E-4</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.013866680533347192</v>
+        <v>-0.027733361066694384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.036243386243386244</v>
+        <v>0.07248677248677249</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04473852040816326</v>
+        <v>0.08947704081632651</v>
       </c>
       <c r="H7" t="n">
-        <v>0.028424456202233994</v>
+        <v>0.05684891240446799</v>
       </c>
     </row>
     <row r="8">
@@ -474,22 +474,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.055541886424239406</v>
+        <v>0.11108377284847881</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0022780717225162617</v>
+        <v>-0.004556143445032523</v>
       </c>
       <c r="E8" t="n">
-        <v>0.024517090786932094</v>
+        <v>0.04903418157386419</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.029855175688508984</v>
+        <v>-0.05971035137701797</v>
       </c>
       <c r="G8" t="n">
-        <v>0.015297951012236688</v>
+        <v>0.030595902024473376</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03322034832451495</v>
+        <v>0.0664406966490299</v>
       </c>
     </row>
     <row r="9">
@@ -500,22 +500,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.015185335497835434</v>
+        <v>-0.030370670995670868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.040679784458586304</v>
+        <v>0.08135956891717261</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.025223052183836442</v>
+        <v>-0.050446104367672884</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0069612412866381645</v>
+        <v>0.013922482573276329</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0371584660800347</v>
+        <v>0.0743169321600694</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.002403771775116803</v>
+        <v>-0.004807543550233606</v>
       </c>
     </row>
     <row r="10">
@@ -526,22 +526,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02015361700235649</v>
+        <v>-0.04030723400471298</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.07045391255917571</v>
+        <v>-0.14090782511835143</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.023853445282016716</v>
+        <v>-0.04770689056403343</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0291549953314659</v>
+        <v>0.0583099906629318</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.017036878147989293</v>
+        <v>-0.034073756295978586</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.002872260015117173</v>
+        <v>-0.005744520030234346</v>
       </c>
     </row>
     <row r="11">
@@ -552,22 +552,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03483075566408908</v>
+        <v>0.06966151132817816</v>
       </c>
       <c r="D11" t="n">
-        <v>0.044764689501531646</v>
+        <v>0.08952937900306329</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0021807521807521713</v>
+        <v>-0.0043615043615043425</v>
       </c>
       <c r="F11" t="n">
-        <v>0.020568783068783014</v>
+        <v>0.04113756613756603</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007506613756613795</v>
+        <v>0.01501322751322759</v>
       </c>
       <c r="H11" t="n">
-        <v>0.031073350517795</v>
+        <v>0.06214670103559</v>
       </c>
     </row>
     <row r="12">
@@ -578,22 +578,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01620057979707104</v>
+        <v>-0.03240115959414208</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001785819768275937</v>
+        <v>-0.003571639536551874</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.031254724111866944</v>
+        <v>-0.06250944822373389</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08492759676970205</v>
+        <v>0.1698551935394041</v>
       </c>
       <c r="G12" t="n">
-        <v>0.013456410386234935</v>
+        <v>0.02691282077246987</v>
       </c>
       <c r="H12" t="n">
-        <v>0.025641025641025605</v>
+        <v>0.05128205128205121</v>
       </c>
     </row>
     <row r="13">
@@ -604,22 +604,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03976733143399819</v>
+        <v>-0.07953466286799638</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0149354711854712</v>
+        <v>-0.0298709423709424</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.031288290169869115</v>
+        <v>-0.06257658033973823</v>
       </c>
       <c r="F13" t="n">
-        <v>0.013723544973544999</v>
+        <v>0.027447089947089998</v>
       </c>
       <c r="G13" t="n">
-        <v>0.018543956043956006</v>
+        <v>0.03708791208791201</v>
       </c>
       <c r="H13" t="n">
-        <v>0.010846203828659973</v>
+        <v>0.021692407657319945</v>
       </c>
     </row>
     <row r="14">
@@ -630,22 +630,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0038265306122448883</v>
+        <v>0.007653061224489777</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01951058201058198</v>
+        <v>-0.03902116402116396</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.024662417519560387</v>
+        <v>-0.049324835039120773</v>
       </c>
       <c r="F14" t="n">
-        <v>0.047119598590186884</v>
+        <v>0.09423919718037377</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0017517517517517123</v>
+        <v>-0.0035035035035034245</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.013975736197958416</v>
+        <v>-0.027951472395916832</v>
       </c>
     </row>
     <row r="15">
@@ -656,22 +656,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002536085869419169</v>
+        <v>0.005072171738838338</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.021135222524111402</v>
+        <v>-0.042270445048222804</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01513108167243507</v>
+        <v>0.03026216334487014</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02527339369444631</v>
+        <v>-0.05054678738889262</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.024617085891595725</v>
+        <v>-0.04923417178319145</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02182781944686707</v>
+        <v>0.04365563889373414</v>
       </c>
     </row>
     <row r="16">
@@ -682,22 +682,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.018961421739199513</v>
+        <v>-0.037922843478399026</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03159635199108882</v>
+        <v>-0.06319270398217763</v>
       </c>
       <c r="E16" t="n">
-        <v>0.028792528792528804</v>
+        <v>0.05758505758505761</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.027777777777777846</v>
+        <v>-0.05555555555555569</v>
       </c>
       <c r="G16" t="n">
-        <v>0.012227595560928922</v>
+        <v>0.024455191121857844</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.044889251997095175</v>
+        <v>-0.08977850399419035</v>
       </c>
     </row>
     <row r="17">
@@ -708,22 +708,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09747942386831271</v>
+        <v>0.19495884773662542</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.012962962962962954</v>
+        <v>-0.025925925925925908</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.04558129558129556</v>
+        <v>-0.09116259116259112</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.020309686976353686</v>
+        <v>-0.04061937395270737</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0074717574717575175</v>
+        <v>0.014943514943515035</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01042312153423261</v>
+        <v>0.02084624306846522</v>
       </c>
     </row>
     <row r="18">
@@ -734,22 +734,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07239742875707791</v>
+        <v>-0.14479485751415583</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0023292357878823833</v>
+        <v>-0.0046584715757647666</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008498461112840222</v>
+        <v>0.016996922225680444</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07955539573186629</v>
+        <v>0.15911079146373258</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02462417065591671</v>
+        <v>0.04924834131183342</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.007931258923322387</v>
+        <v>-0.015862517846644775</v>
       </c>
     </row>
     <row r="19">
@@ -760,22 +760,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03928571428571437</v>
+        <v>0.07857142857142874</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.004416906463690168</v>
+        <v>-0.008833812927380336</v>
       </c>
       <c r="E19" t="n">
-        <v>0.014802500913612071</v>
+        <v>0.029605001827224142</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01211361737677527</v>
+        <v>-0.02422723475355054</v>
       </c>
       <c r="G19" t="n">
-        <v>0.018294051627384955</v>
+        <v>0.03658810325476991</v>
       </c>
       <c r="H19" t="n">
-        <v>0.041559993172896326</v>
+        <v>0.08311998634579265</v>
       </c>
     </row>
     <row r="20">
@@ -786,22 +786,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008037288989670016</v>
+        <v>0.016074577979340032</v>
       </c>
       <c r="D20" t="n">
-        <v>0.011628169522906323</v>
+        <v>0.023256339045812646</v>
       </c>
       <c r="E20" t="n">
-        <v>0.013439492606159259</v>
+        <v>0.026878985212318518</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.007940498136576546</v>
+        <v>-0.015880996273153092</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.018416768416768398</v>
+        <v>-0.036833536833536795</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0033402249788804794</v>
+        <v>-0.006680449957760959</v>
       </c>
     </row>
     <row r="21">
@@ -812,22 +812,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0314710314710315</v>
+        <v>0.062942062942063</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.021926254382394705</v>
+        <v>-0.04385250876478941</v>
       </c>
       <c r="E21" t="n">
-        <v>0.11121286121286122</v>
+        <v>0.22242572242572245</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06485408678391133</v>
+        <v>0.12970817356782266</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02157128933444727</v>
+        <v>0.04314257866889454</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007798091131424406</v>
+        <v>0.015596182262848812</v>
       </c>
     </row>
     <row r="22">
@@ -838,22 +838,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07275763158116094</v>
+        <v>0.14551526316232188</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.04448669900058788</v>
+        <v>-0.08897339800117576</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0038292147667147725</v>
+        <v>-0.007658429533429545</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006834897701770787</v>
+        <v>-0.013669795403541574</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.558578987150455E-4</v>
+        <v>-0.001511715797430091</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.007690229912452218</v>
+        <v>-0.015380459824904436</v>
       </c>
     </row>
     <row r="23">
@@ -864,22 +864,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0026941624163845934</v>
+        <v>-0.005388324832769187</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.028704214418500185</v>
+        <v>-0.05740842883700037</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004183694973168645</v>
+        <v>0.00836738994633729</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002015752015751965</v>
+        <v>0.00403150403150393</v>
       </c>
       <c r="G23" t="n">
-        <v>0.027381705013283936</v>
+        <v>0.05476341002656787</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06579715219421106</v>
+        <v>0.13159430438842212</v>
       </c>
     </row>
     <row r="24">
@@ -890,22 +890,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01158301158301156</v>
+        <v>0.02316602316602312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.026953958971502823</v>
+        <v>0.053907917943005645</v>
       </c>
       <c r="E24" t="n">
-        <v>0.020790937457604186</v>
+        <v>0.04158187491520837</v>
       </c>
       <c r="F24" t="n">
-        <v>0.013749651907546678</v>
+        <v>0.027499303815093357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02690308392062782</v>
+        <v>0.05380616784125564</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03293133117694516</v>
+        <v>0.06586266235389032</v>
       </c>
     </row>
     <row r="25">
@@ -916,22 +916,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.038682771441392094</v>
+        <v>-0.07736554288278419</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.051873301873301914</v>
+        <v>-0.10374660374660383</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008803175469842162</v>
+        <v>0.017606350939684323</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02338052338052335</v>
+        <v>0.0467610467610467</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02502462264367017</v>
+        <v>0.05004924528734034</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.023418507793507737</v>
+        <v>-0.046837015587015474</v>
       </c>
     </row>
     <row r="26">
@@ -942,22 +942,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.027526377672576513</v>
+        <v>0.055052755345153026</v>
       </c>
       <c r="D26" t="n">
-        <v>0.022052664909807812</v>
+        <v>0.044105329819615624</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0012048590479963317</v>
+        <v>0.0024097180959926634</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04816586356764929</v>
+        <v>0.09633172713529858</v>
       </c>
       <c r="G26" t="n">
-        <v>0.013402749513860612</v>
+        <v>0.026805499027721225</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.220423972057629E-4</v>
+        <v>-6.440847944115258E-4</v>
       </c>
     </row>
     <row r="27">
@@ -968,22 +968,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.011202329184785365</v>
+        <v>0.02240465836957073</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.01759027197623686</v>
+        <v>-0.03518054395247372</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005708769994484247</v>
+        <v>0.011417539988968495</v>
       </c>
       <c r="F27" t="n">
-        <v>0.024453024453024413</v>
+        <v>0.04890604890604883</v>
       </c>
       <c r="G27" t="n">
-        <v>5.426672093338525E-4</v>
+        <v>0.001085334418667705</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04876304876304882</v>
+        <v>0.09752609752609764</v>
       </c>
     </row>
     <row r="28">
@@ -994,22 +994,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03769316368522718</v>
+        <v>0.07538632737045436</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.020642762578246487</v>
+        <v>-0.041285525156492975</v>
       </c>
       <c r="E28" t="n">
-        <v>0.036731175620064505</v>
+        <v>0.07346235124012901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.041586356764928195</v>
+        <v>0.08317271352985639</v>
       </c>
       <c r="G28" t="n">
-        <v>0.005450710750249943</v>
+        <v>0.010901421500499886</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.012682850918145</v>
+        <v>-0.02536570183629</v>
       </c>
     </row>
     <row r="29">
@@ -1020,22 +1020,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.031015037593984995</v>
+        <v>0.06203007518796999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.007797174463841039</v>
+        <v>0.015594348927682078</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.019547325102880625</v>
+        <v>-0.03909465020576125</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0107765328353564</v>
+        <v>0.0215530656707128</v>
       </c>
       <c r="G29" t="n">
-        <v>0.044901023472452006</v>
+        <v>0.08980204694490401</v>
       </c>
       <c r="H29" t="n">
-        <v>0.017267267267267267</v>
+        <v>0.03453453453453453</v>
       </c>
     </row>
     <row r="30">
@@ -1046,22 +1046,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0107822107822107</v>
+        <v>0.0215644215644214</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.030556449306449296</v>
+        <v>-0.06111289861289859</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.020112374279040973</v>
+        <v>-0.040224748558081946</v>
       </c>
       <c r="F30" t="n">
-        <v>0.007843557843557808</v>
+        <v>0.015687115687115616</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03951719576719581</v>
+        <v>0.07903439153439162</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01428966560545511</v>
+        <v>0.02857933121091022</v>
       </c>
     </row>
   </sheetData>
@@ -1115,10 +1115,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
       <c r="G2" t="n">
-        <v>0.035</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="3">
@@ -1138,10 +1138,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.011</v>
+        <v>-0.023</v>
       </c>
       <c r="G3" t="n">
-        <v>0.027</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="4">
@@ -1161,10 +1161,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.031</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="5">
@@ -1184,10 +1184,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.016</v>
+        <v>0.031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.031</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.013</v>
+        <v>0.025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.026</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="7">
@@ -1230,10 +1230,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="G7" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>8.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.040679784458586304</v>
+        <v>0.08135956891717261</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1307,7 +1307,7 @@
         <v>9.0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.07045391255917571</v>
+        <v>-0.14090782511835143</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1330,7 +1330,7 @@
         <v>10.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.044764689501531646</v>
+        <v>0.08952937900306329</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1353,7 +1353,7 @@
         <v>20.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11121286121286122</v>
+        <v>0.22242572242572245</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1376,7 +1376,7 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06756973622782445</v>
+        <v>-0.1351394724556489</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
